--- a/ILP/NN/hyperpara.xlsx
+++ b/ILP/NN/hyperpara.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k1759921\Documents\code\matlab\Neural-Networks\ILP\NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{D4B8CF24-DC44-4973-B130-AE431B3FED39}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B9ABA2-4F1A-4614-905B-14FFE376C748}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620"/>
+    <workbookView xWindow="7010" yWindow="2440" windowWidth="10200" windowHeight="7080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="25">
   <si>
     <t>hidden layer</t>
   </si>
@@ -61,12 +61,57 @@
   </si>
   <si>
     <t>Average Accuracy on Training</t>
+  </si>
+  <si>
+    <t>training dataset size=1000, batchsize=200, epochs=10, learning rate=0.001</t>
+  </si>
+  <si>
+    <t>training dataset size=1000, batchsize=100, epochs=20, learning rate=0.001</t>
+  </si>
+  <si>
+    <t>training dataset size=1000, batchsize=100, epochs=30, learning rate=0.001</t>
+  </si>
+  <si>
+    <t>training dataset size=1000, batchsize=100, epochs=40, learning rate=0.001</t>
+  </si>
+  <si>
+    <t>training dataset size=1000, batchsize=500, epochs=10, learning rate=0.001</t>
+  </si>
+  <si>
+    <t>training dataset size=1000, batchsize=1000, epochs=10, learning rate=0.001</t>
+  </si>
+  <si>
+    <t>training dataset size=1000, batchsize=200, epochs=20, learning rate=0.001</t>
+  </si>
+  <si>
+    <t>training dataset size=1000, batchsize=500, epochs=20, learning rate=0.001</t>
+  </si>
+  <si>
+    <t>training dataset size=1000, batchsize=1000, epochs=20, learning rate=0.001</t>
+  </si>
+  <si>
+    <t>training dataset size=1000, batchsize=200, epochs=30, learning rate=0.001</t>
+  </si>
+  <si>
+    <t>training dataset size=1000, batchsize=500, epochs=30, learning rate=0.001</t>
+  </si>
+  <si>
+    <t>training dataset size=1000, batchsize=1000, epochs=30, learning rate=0.001</t>
+  </si>
+  <si>
+    <t>training dataset size=1000, batchsize=200, epochs=40, learning rate=0.001</t>
+  </si>
+  <si>
+    <t>training dataset size=1000, batchsize=500, epochs=40, learning rate=0.001</t>
+  </si>
+  <si>
+    <t>training dataset size=1000, batchsize=1000, epochs=40, learning rate=0.001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -104,13 +149,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -426,227 +471,1771 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.90625" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" customWidth="1"/>
+    <col min="7" max="7" width="28.54296875" customWidth="1"/>
+    <col min="13" max="13" width="27.54296875" customWidth="1"/>
+    <col min="19" max="19" width="27.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="M1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="S1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>2</v>
+      </c>
+      <c r="V2" s="1">
+        <v>3</v>
+      </c>
+      <c r="W2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2.14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.3710000000000004</v>
+      </c>
+      <c r="D3" s="3">
+        <v>12.41</v>
+      </c>
+      <c r="E3" s="1">
+        <v>28.224</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1.6870000000000001</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4.7389999999999999</v>
+      </c>
+      <c r="J3" s="3">
+        <v>11.138999999999999</v>
+      </c>
+      <c r="K3" s="1">
+        <v>25.600999999999999</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2.0720000000000001</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5.1920000000000002</v>
-      </c>
-      <c r="D3" s="4">
-        <v>11.7242</v>
-      </c>
-      <c r="E3" s="2">
-        <v>28.943999999999999</v>
-      </c>
-      <c r="F3" s="2">
-        <v>67.245000000000005</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="H4" s="1">
+        <v>3.9E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.9425</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="S5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="S6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="S7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="S8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="S9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.996</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.996</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.996</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.995</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="S10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="M12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="S12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2</v>
+      </c>
+      <c r="P13" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>4</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>2</v>
+      </c>
+      <c r="V13" s="1">
+        <v>3</v>
+      </c>
+      <c r="W13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3.847</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10.137</v>
+      </c>
+      <c r="D14" s="3">
+        <v>23.881</v>
+      </c>
+      <c r="E14" s="3">
+        <v>54.97</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="1"/>
+      <c r="S14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="C4" s="2">
-        <v>4.7E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="C15" s="1">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7.8E-2</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="S15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.91100000000000003</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="B16" s="2">
+        <v>0.999</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="M16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="S16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="M17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="S17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2">
         <v>0.93200000000000005</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.72599999999999998</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.89</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.91500000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="C18" s="2">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="M18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="S18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="M19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="S19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="M20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="S20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.996</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.996</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="M21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="S21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="M23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="S23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3</v>
+      </c>
+      <c r="K24" s="1">
+        <v>4</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>2</v>
+      </c>
+      <c r="P24" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>4</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>1</v>
+      </c>
+      <c r="U24" s="1">
+        <v>2</v>
+      </c>
+      <c r="V24" s="1">
+        <v>3</v>
+      </c>
+      <c r="W24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5.5110000000000001</v>
+      </c>
+      <c r="C25" s="1">
+        <v>15.702</v>
+      </c>
+      <c r="D25" s="3">
+        <v>35.905999999999999</v>
+      </c>
+      <c r="E25" s="3">
+        <v>82.325999999999993</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="1"/>
+      <c r="M25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="1"/>
+      <c r="S25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T25" s="3"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="M26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="S26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="M27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="S27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="M28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="S28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="M29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="S29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="C30" s="2">
         <v>0.97299999999999998</v>
       </c>
-      <c r="C8" s="3">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="D30" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="M30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="S30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="M31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="S31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.996</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.996</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.995</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="M32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="S32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="M34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="S34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>2</v>
+      </c>
+      <c r="J35" s="1">
+        <v>3</v>
+      </c>
+      <c r="K35" s="1">
+        <v>4</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>1</v>
+      </c>
+      <c r="O35" s="1">
+        <v>2</v>
+      </c>
+      <c r="P35" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>4</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>1</v>
+      </c>
+      <c r="U35" s="1">
+        <v>2</v>
+      </c>
+      <c r="V35" s="1">
+        <v>3</v>
+      </c>
+      <c r="W35" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="3">
+        <v>7.4320000000000004</v>
+      </c>
+      <c r="C36" s="3">
+        <v>19.791</v>
+      </c>
+      <c r="D36" s="3">
+        <v>45.703000000000003</v>
+      </c>
+      <c r="E36" s="3">
+        <v>101.599</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="1"/>
+      <c r="M36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N36" s="3"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="1"/>
+      <c r="S36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T36" s="3"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="C37" s="3">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D37" s="3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="M37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="S37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="M38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="S38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="M39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="S39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="M40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="S40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D41" s="2">
         <v>0.97699999999999998</v>
       </c>
-      <c r="E8" s="3">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.97699999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="E41" s="2">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="M41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="S41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B42" s="2">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="C42" s="2">
         <v>0.98899999999999999</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D42" s="2">
         <v>0.99199999999999999</v>
       </c>
-      <c r="D9" s="3">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.98</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E42" s="2">
         <v>0.99199999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="G42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="M42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="S42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B43" s="2">
+        <v>0.996</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.996</v>
+      </c>
+      <c r="E43" s="2">
         <v>0.998</v>
       </c>
-      <c r="C10" s="3">
-        <v>0.997</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.997</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.995</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="G43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="M43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="S43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A47" s="1"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="16">
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="S34:W34"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/ILP/NN/hyperpara.xlsx
+++ b/ILP/NN/hyperpara.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k1759921\Documents\code\matlab\Neural-Networks\ILP\NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9131CE50-BDF3-43AF-83DC-BB96853D727B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D821C0-B530-426A-8FFD-C04886D88F31}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3500" yWindow="5920" windowWidth="10200" windowHeight="5010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1e3" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="3e3" sheetId="3" r:id="rId3"/>
     <sheet name="4e3" sheetId="4" r:id="rId4"/>
     <sheet name="5e3" sheetId="5" r:id="rId5"/>
+    <sheet name="Addition" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="93">
   <si>
     <t>hidden layer</t>
   </si>
@@ -303,6 +304,18 @@
   <si>
     <t>training dataset size=5000, batchsize=1000, epochs=40, learning rate=0.001</t>
   </si>
+  <si>
+    <t>training dataset size=1024, batchsize=64, learning rate=0.001</t>
+  </si>
+  <si>
+    <t>epochs\layers</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
 </sst>
 </file>
 
@@ -360,7 +373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -385,6 +398,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -705,7 +721,7 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -719,43 +735,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="7">
         <v>10</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
       <c r="L1" s="7">
         <v>5</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
       <c r="R1" s="7">
         <v>2</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
       <c r="X1" s="7">
         <v>1</v>
       </c>
@@ -1329,34 +1345,34 @@
       <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="G12" s="6" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="G12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="M12" s="6" t="s">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="M12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="S12" s="6" t="s">
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="S12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -1917,34 +1933,34 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="G23" s="6" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="G23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="M23" s="6" t="s">
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="M23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="S23" s="6" t="s">
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="S23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
@@ -2505,34 +2521,34 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="G34" s="6" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="G34" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="M34" s="6" t="s">
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="M34" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="S34" s="6" t="s">
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="S34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -3164,22 +3180,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="M34:Q34"/>
-    <mergeCell ref="S34:W34"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="G23:K23"/>
     <mergeCell ref="G1:K1"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="S34:W34"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="S12:W12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3204,43 +3220,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="7">
         <v>20</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
       <c r="L1" s="7">
         <v>10</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
       <c r="R1" s="7">
         <v>4</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
       <c r="X1" s="7">
         <v>2</v>
       </c>
@@ -3816,34 +3832,34 @@
       <c r="A11" s="4"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="G12" s="6" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="G12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="M12" s="6" t="s">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="M12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="S12" s="6" t="s">
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="S12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
@@ -4404,34 +4420,34 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="G23" s="6" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="G23" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="M23" s="6" t="s">
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="M23" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="S23" s="6" t="s">
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="S23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
@@ -4992,34 +5008,34 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="G34" s="6" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="G34" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="M34" s="6" t="s">
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="M34" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="S34" s="6" t="s">
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="S34" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
@@ -5651,6 +5667,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="S34:W34"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="M1:Q1"/>
@@ -5659,14 +5683,6 @@
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="M12:Q12"/>
     <mergeCell ref="S12:W12"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="M34:Q34"/>
-    <mergeCell ref="S34:W34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5691,43 +5707,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="7">
         <v>30</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
       <c r="L1" s="7">
         <v>15</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
       <c r="R1" s="7">
         <v>6</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
       <c r="X1" s="7">
         <v>3</v>
       </c>
@@ -6303,34 +6319,34 @@
       <c r="A11" s="4"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="G12" s="6" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="G12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="M12" s="6" t="s">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="M12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="S12" s="6" t="s">
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="S12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
@@ -6891,34 +6907,34 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="G23" s="6" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="G23" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="M23" s="6" t="s">
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="M23" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="S23" s="6" t="s">
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="S23" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
@@ -7479,34 +7495,34 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="G34" s="6" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="G34" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="M34" s="6" t="s">
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="M34" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="S34" s="6" t="s">
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="S34" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
@@ -8138,6 +8154,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="S34:W34"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="M1:Q1"/>
@@ -8146,14 +8170,6 @@
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="M12:Q12"/>
     <mergeCell ref="S12:W12"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="M34:Q34"/>
-    <mergeCell ref="S34:W34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8165,7 +8181,7 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L6" sqref="H5:L6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8178,43 +8194,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="7">
         <v>40</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
       <c r="L1" s="7">
         <v>20</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
       <c r="R1" s="7">
         <v>8</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
       <c r="X1" s="7">
         <v>4</v>
       </c>
@@ -8790,34 +8806,34 @@
       <c r="A11" s="4"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="G12" s="6" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="G12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="M12" s="6" t="s">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="M12" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="S12" s="6" t="s">
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="S12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
@@ -9378,34 +9394,34 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="G23" s="6" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="G23" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="M23" s="6" t="s">
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="M23" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="S23" s="6" t="s">
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="S23" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
@@ -9966,34 +9982,34 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="G34" s="6" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="G34" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="M34" s="6" t="s">
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="M34" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="S34" s="6" t="s">
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="S34" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
@@ -10625,6 +10641,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="S34:W34"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="M1:Q1"/>
@@ -10633,14 +10657,6 @@
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="M12:Q12"/>
     <mergeCell ref="S12:W12"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="M34:Q34"/>
-    <mergeCell ref="S34:W34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10651,8 +10667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBEB8D8-7776-40C9-B813-21A4A04E81D5}">
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W42" sqref="W42"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10665,43 +10681,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="7">
         <v>50</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
       <c r="L1" s="7">
         <v>25</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
       <c r="R1" s="7">
         <v>10</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
       <c r="X1" s="7">
         <v>5</v>
       </c>
@@ -11279,34 +11295,34 @@
       <c r="A11" s="4"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="G12" s="6" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="G12" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="M12" s="6" t="s">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="M12" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="S12" s="6" t="s">
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="S12" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
@@ -11867,34 +11883,34 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="G23" s="6" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="G23" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="M23" s="6" t="s">
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="M23" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="S23" s="6" t="s">
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="S23" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
@@ -12455,34 +12471,34 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="G34" s="6" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="G34" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="M34" s="6" t="s">
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="M34" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="S34" s="6" t="s">
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="S34" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
@@ -13114,6 +13130,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="S34:W34"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="M1:Q1"/>
@@ -13122,14 +13146,514 @@
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="M12:Q12"/>
     <mergeCell ref="S12:W12"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="M34:Q34"/>
-    <mergeCell ref="S34:W34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23508D09-EE3B-4A03-87CB-C11F993E9737}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.64690000000000003</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.60450000000000004</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.60780000000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.38279999999999997</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.85470000000000002</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.75939999999999996</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.70779999999999998</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.9234</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.88280000000000003</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.80940000000000001</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.90780000000000005</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.95940000000000003</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.95779999999999998</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.92190000000000005</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.98129999999999995</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.94379999999999997</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.94840000000000002</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.97189999999999999</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.92190000000000005</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.94530000000000003</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.95779999999999998</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.96409999999999996</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.95779999999999998</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.96409999999999996</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.98129999999999995</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.93589999999999995</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.95940000000000003</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6">
+        <v>3</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4</v>
+      </c>
+      <c r="F14" s="6">
+        <v>10</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.746</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.745</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.748</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.749</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.752</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
